--- a/data/pca/factorExposure/factorExposure_2011-07-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02458454362267116</v>
+        <v>-0.01878011273797669</v>
       </c>
       <c r="C2">
-        <v>-0.004717116497095738</v>
+        <v>-0.00135085335561296</v>
       </c>
       <c r="D2">
-        <v>0.06192601764855385</v>
+        <v>-0.003480556235960569</v>
       </c>
       <c r="E2">
-        <v>-0.02485249086952734</v>
+        <v>0.0386895655708004</v>
       </c>
       <c r="F2">
-        <v>-0.01745485729830092</v>
+        <v>-0.007689916054667576</v>
       </c>
       <c r="G2">
-        <v>0.04117922123297745</v>
+        <v>0.01974814705172157</v>
       </c>
       <c r="H2">
-        <v>-0.02845136652193472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02445295774835914</v>
+      </c>
+      <c r="I2">
+        <v>0.006756461357847889</v>
+      </c>
+      <c r="J2">
+        <v>-9.078665889549697e-05</v>
+      </c>
+      <c r="K2">
+        <v>-0.1030828070792304</v>
+      </c>
+      <c r="L2">
+        <v>-0.04564695050286981</v>
+      </c>
+      <c r="M2">
+        <v>0.07457018543268697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.06751009372612379</v>
+        <v>-0.1006535302338694</v>
       </c>
       <c r="C4">
-        <v>0.06280414611648454</v>
+        <v>0.07206462792234646</v>
       </c>
       <c r="D4">
-        <v>0.02878607819225622</v>
+        <v>-0.02282735002916278</v>
       </c>
       <c r="E4">
-        <v>-0.03670288605295263</v>
+        <v>0.04713623411103788</v>
       </c>
       <c r="F4">
-        <v>0.0414587067416874</v>
+        <v>-0.09859513316085573</v>
       </c>
       <c r="G4">
-        <v>0.004940073947893239</v>
+        <v>0.01359581749649606</v>
       </c>
       <c r="H4">
-        <v>0.01100637975614835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06696179288515804</v>
+      </c>
+      <c r="I4">
+        <v>0.03250926676835414</v>
+      </c>
+      <c r="J4">
+        <v>0.04789372605589161</v>
+      </c>
+      <c r="K4">
+        <v>0.02638416780661357</v>
+      </c>
+      <c r="L4">
+        <v>-0.03462222568090906</v>
+      </c>
+      <c r="M4">
+        <v>0.009315262573215301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1268535851069379</v>
+        <v>-0.1302412740121159</v>
       </c>
       <c r="C6">
-        <v>0.04226255420886594</v>
+        <v>0.04845261633261277</v>
       </c>
       <c r="D6">
-        <v>0.07197405525434834</v>
+        <v>-0.0008806824864799312</v>
       </c>
       <c r="E6">
-        <v>-0.08662727582574584</v>
+        <v>0.03320064738318681</v>
       </c>
       <c r="F6">
-        <v>0.03545942444241738</v>
+        <v>-0.02822569927009299</v>
       </c>
       <c r="G6">
-        <v>-0.1002572374272978</v>
+        <v>-0.1695809300818266</v>
       </c>
       <c r="H6">
-        <v>-0.1082501181427206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.05024628680482068</v>
+      </c>
+      <c r="I6">
+        <v>-0.1104107308374543</v>
+      </c>
+      <c r="J6">
+        <v>0.4280622564752124</v>
+      </c>
+      <c r="K6">
+        <v>0.02578105541202866</v>
+      </c>
+      <c r="L6">
+        <v>0.0380103373202377</v>
+      </c>
+      <c r="M6">
+        <v>-0.09647634270054228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06524565064064493</v>
+        <v>-0.07011082371197049</v>
       </c>
       <c r="C7">
-        <v>0.05135444216370795</v>
+        <v>0.07343501421288609</v>
       </c>
       <c r="D7">
-        <v>0.05540573790947808</v>
+        <v>-0.003612170778907838</v>
       </c>
       <c r="E7">
-        <v>-0.03253494338797873</v>
+        <v>0.04618552444709441</v>
       </c>
       <c r="F7">
-        <v>0.02696187781881823</v>
+        <v>-0.01914209647020807</v>
       </c>
       <c r="G7">
-        <v>-0.04024815865460458</v>
+        <v>0.006427908061358696</v>
       </c>
       <c r="H7">
-        <v>-0.001970193065723579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.06281282565486246</v>
+      </c>
+      <c r="I7">
+        <v>0.02526249101607498</v>
+      </c>
+      <c r="J7">
+        <v>-0.04992679152757025</v>
+      </c>
+      <c r="K7">
+        <v>0.06491651380280514</v>
+      </c>
+      <c r="L7">
+        <v>-0.02725892599967013</v>
+      </c>
+      <c r="M7">
+        <v>0.007515157942814698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02188770294443014</v>
+        <v>-0.03468490715622766</v>
       </c>
       <c r="C8">
-        <v>0.01394354405715011</v>
+        <v>0.008163110516990804</v>
       </c>
       <c r="D8">
-        <v>0.04017318056420599</v>
+        <v>-0.0181572113515373</v>
       </c>
       <c r="E8">
-        <v>-0.06794877707686052</v>
+        <v>0.05304369203559593</v>
       </c>
       <c r="F8">
-        <v>-0.02413912156929945</v>
+        <v>-0.1019177079706943</v>
       </c>
       <c r="G8">
-        <v>0.002160734862395256</v>
+        <v>0.00264108740058442</v>
       </c>
       <c r="H8">
-        <v>-0.0338341099984362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.05797741462735036</v>
+      </c>
+      <c r="I8">
+        <v>0.02879484207684483</v>
+      </c>
+      <c r="J8">
+        <v>0.04038994310049782</v>
+      </c>
+      <c r="K8">
+        <v>0.03234670013829653</v>
+      </c>
+      <c r="L8">
+        <v>-0.07846647445880531</v>
+      </c>
+      <c r="M8">
+        <v>0.0008598185854647801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.06868298405513591</v>
+        <v>-0.08421377176353424</v>
       </c>
       <c r="C9">
-        <v>0.07784977315369128</v>
+        <v>0.06745724596311296</v>
       </c>
       <c r="D9">
-        <v>0.03623796780906308</v>
+        <v>-0.0004694312278111792</v>
       </c>
       <c r="E9">
-        <v>-0.02291366548314793</v>
+        <v>0.03120731516728377</v>
       </c>
       <c r="F9">
-        <v>0.02491993487171548</v>
+        <v>-0.09898332623725764</v>
       </c>
       <c r="G9">
-        <v>0.01094511039369303</v>
+        <v>0.01294188779307794</v>
       </c>
       <c r="H9">
-        <v>0.01138187430532015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.07485379264443241</v>
+      </c>
+      <c r="I9">
+        <v>0.00180031129970529</v>
+      </c>
+      <c r="J9">
+        <v>0.02451908429808812</v>
+      </c>
+      <c r="K9">
+        <v>0.01707045797746766</v>
+      </c>
+      <c r="L9">
+        <v>-0.0228282025784604</v>
+      </c>
+      <c r="M9">
+        <v>-0.004680887677641897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06168413858502915</v>
+        <v>-0.1064652198816148</v>
       </c>
       <c r="C10">
-        <v>-0.1352823312640328</v>
+        <v>-0.1703915956280179</v>
       </c>
       <c r="D10">
-        <v>0.05588146000339927</v>
+        <v>-0.008065087535578013</v>
       </c>
       <c r="E10">
-        <v>-0.02782456527610994</v>
+        <v>0.04311867005238262</v>
       </c>
       <c r="F10">
-        <v>0.0008385659497177548</v>
+        <v>0.01902027617966113</v>
       </c>
       <c r="G10">
-        <v>-0.04337382398667059</v>
+        <v>-0.00663766295242433</v>
       </c>
       <c r="H10">
-        <v>-0.04281626236128102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.003982331908319717</v>
+      </c>
+      <c r="I10">
+        <v>-0.04124841001364962</v>
+      </c>
+      <c r="J10">
+        <v>-0.06023676051055388</v>
+      </c>
+      <c r="K10">
+        <v>0.008067334717312729</v>
+      </c>
+      <c r="L10">
+        <v>0.02494839336638128</v>
+      </c>
+      <c r="M10">
+        <v>-0.04620260618460859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06445401316703256</v>
+        <v>-0.06796654521337343</v>
       </c>
       <c r="C11">
-        <v>0.08656296229806208</v>
+        <v>0.07181722412343497</v>
       </c>
       <c r="D11">
-        <v>0.03981292096885499</v>
+        <v>0.03177961127611684</v>
       </c>
       <c r="E11">
-        <v>-0.00193825085879504</v>
+        <v>0.0206543323920248</v>
       </c>
       <c r="F11">
-        <v>-0.02483242408951563</v>
+        <v>-0.103477852219063</v>
       </c>
       <c r="G11">
-        <v>0.02886692601269628</v>
+        <v>0.01673048118546589</v>
       </c>
       <c r="H11">
-        <v>0.01125155867578187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.05741101464804951</v>
+      </c>
+      <c r="I11">
+        <v>-0.01516769498800974</v>
+      </c>
+      <c r="J11">
+        <v>-0.08082963838150253</v>
+      </c>
+      <c r="K11">
+        <v>-0.03786812098277379</v>
+      </c>
+      <c r="L11">
+        <v>0.01189384098774829</v>
+      </c>
+      <c r="M11">
+        <v>-0.04757329220847181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05836626622616645</v>
+        <v>-0.0699217004793303</v>
       </c>
       <c r="C12">
-        <v>0.05157683959621395</v>
+        <v>0.06247199738221669</v>
       </c>
       <c r="D12">
-        <v>0.02023894017445425</v>
+        <v>0.02981229939659339</v>
       </c>
       <c r="E12">
-        <v>-0.01276850704428301</v>
+        <v>0.01492766704806442</v>
       </c>
       <c r="F12">
-        <v>0.01121740161198698</v>
+        <v>-0.1132992293358625</v>
       </c>
       <c r="G12">
-        <v>-0.01441839595089004</v>
+        <v>0.007563192258184611</v>
       </c>
       <c r="H12">
-        <v>0.01879747841107006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.07121334664376115</v>
+      </c>
+      <c r="I12">
+        <v>-0.004836593034815272</v>
+      </c>
+      <c r="J12">
+        <v>-0.06969905724920607</v>
+      </c>
+      <c r="K12">
+        <v>-0.04672723367745461</v>
+      </c>
+      <c r="L12">
+        <v>-0.04075072403207301</v>
+      </c>
+      <c r="M12">
+        <v>-0.08451893085786702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05090191522466943</v>
+        <v>-0.04961319991348457</v>
       </c>
       <c r="C13">
-        <v>0.02633218587605229</v>
+        <v>0.03511541213884013</v>
       </c>
       <c r="D13">
-        <v>-0.0002839713772074741</v>
+        <v>-0.02111304502019678</v>
       </c>
       <c r="E13">
-        <v>-0.009511817311601216</v>
+        <v>0.01312990543671304</v>
       </c>
       <c r="F13">
-        <v>0.004290301136304557</v>
+        <v>-0.04244190950984739</v>
       </c>
       <c r="G13">
-        <v>0.05252371655495888</v>
+        <v>0.03135038301244482</v>
       </c>
       <c r="H13">
-        <v>0.05514740281538506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.03212091730148165</v>
+      </c>
+      <c r="I13">
+        <v>0.0251223022157248</v>
+      </c>
+      <c r="J13">
+        <v>0.001780977944845624</v>
+      </c>
+      <c r="K13">
+        <v>0.06733418431314733</v>
+      </c>
+      <c r="L13">
+        <v>-0.0578402098026072</v>
+      </c>
+      <c r="M13">
+        <v>0.004249717156746014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04197134042996297</v>
+        <v>-0.04540289423155679</v>
       </c>
       <c r="C14">
-        <v>0.02087292569624758</v>
+        <v>0.02737539185810854</v>
       </c>
       <c r="D14">
-        <v>0.02011137265167027</v>
+        <v>0.008211217232082145</v>
       </c>
       <c r="E14">
-        <v>-0.006237937611867687</v>
+        <v>0.01627129345408333</v>
       </c>
       <c r="F14">
-        <v>0.04909631394602862</v>
+        <v>-0.04918019193296875</v>
       </c>
       <c r="G14">
-        <v>-0.01164758068541018</v>
+        <v>0.04854281385637491</v>
       </c>
       <c r="H14">
-        <v>-0.04367889738145296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.05346896061581401</v>
+      </c>
+      <c r="I14">
+        <v>0.01260390448841831</v>
+      </c>
+      <c r="J14">
+        <v>0.03727769564798213</v>
+      </c>
+      <c r="K14">
+        <v>0.05127120722222716</v>
+      </c>
+      <c r="L14">
+        <v>-0.008252175027440772</v>
+      </c>
+      <c r="M14">
+        <v>0.01272319971441661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03510802671313906</v>
+        <v>-0.03246901654567323</v>
       </c>
       <c r="C15">
-        <v>-0.00443175590173266</v>
+        <v>0.009418567214301314</v>
       </c>
       <c r="D15">
-        <v>-0.007584495346706637</v>
+        <v>-0.05776406354093395</v>
       </c>
       <c r="E15">
-        <v>-0.02839378168354581</v>
+        <v>0.004069201822453706</v>
       </c>
       <c r="F15">
-        <v>0.02776888195574618</v>
+        <v>-0.00153153679445601</v>
       </c>
       <c r="G15">
-        <v>0.004002244042967679</v>
+        <v>-0.01776222105055986</v>
       </c>
       <c r="H15">
-        <v>0.01516293253754552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03154096050327672</v>
+      </c>
+      <c r="I15">
+        <v>0.04659932079463741</v>
+      </c>
+      <c r="J15">
+        <v>0.05043834083336053</v>
+      </c>
+      <c r="K15">
+        <v>0.0521645399248085</v>
+      </c>
+      <c r="L15">
+        <v>-0.00488526955455762</v>
+      </c>
+      <c r="M15">
+        <v>-0.001470491489444915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04822301335660247</v>
+        <v>-0.06981176296595207</v>
       </c>
       <c r="C16">
-        <v>0.08033557471845654</v>
+        <v>0.07837915966701993</v>
       </c>
       <c r="D16">
-        <v>0.02619337431573811</v>
+        <v>0.01956372932623383</v>
       </c>
       <c r="E16">
-        <v>-0.02510027223956747</v>
+        <v>0.02233617443898727</v>
       </c>
       <c r="F16">
-        <v>0.02492238758822082</v>
+        <v>-0.1038448624089275</v>
       </c>
       <c r="G16">
-        <v>0.02478292604954526</v>
+        <v>0.02208205088590554</v>
       </c>
       <c r="H16">
-        <v>0.0003655197766649041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.07678541358267786</v>
+      </c>
+      <c r="I16">
+        <v>-0.0138852196858145</v>
+      </c>
+      <c r="J16">
+        <v>-0.07394540439230891</v>
+      </c>
+      <c r="K16">
+        <v>-0.02302379120902746</v>
+      </c>
+      <c r="L16">
+        <v>-0.01817958291357161</v>
+      </c>
+      <c r="M16">
+        <v>-0.02973450507630492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.0391993758479111</v>
+        <v>-0.04220756470506857</v>
       </c>
       <c r="C20">
-        <v>0.04220664731246675</v>
+        <v>0.03245705681490858</v>
       </c>
       <c r="D20">
-        <v>0.02121604651727285</v>
+        <v>-0.02229439471401737</v>
       </c>
       <c r="E20">
-        <v>-0.01412230119358914</v>
+        <v>0.0211718573845374</v>
       </c>
       <c r="F20">
-        <v>0.02772466610988561</v>
+        <v>-0.04817287115467069</v>
       </c>
       <c r="G20">
-        <v>0.0236859515565995</v>
+        <v>0.02852598514377376</v>
       </c>
       <c r="H20">
-        <v>0.01278326776331434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.06218532872324468</v>
+      </c>
+      <c r="I20">
+        <v>-0.002980400782780054</v>
+      </c>
+      <c r="J20">
+        <v>-0.001604109736600731</v>
+      </c>
+      <c r="K20">
+        <v>0.02096293511648666</v>
+      </c>
+      <c r="L20">
+        <v>-0.06781413337407984</v>
+      </c>
+      <c r="M20">
+        <v>-0.02741164703719153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.008355515063531499</v>
+        <v>-0.02490512803769549</v>
       </c>
       <c r="C21">
-        <v>0.01133956793181488</v>
+        <v>0.01359439772879606</v>
       </c>
       <c r="D21">
-        <v>-0.01143632592556881</v>
+        <v>-0.01651581238433059</v>
       </c>
       <c r="E21">
-        <v>-0.07860398236996695</v>
+        <v>0.01461324248437872</v>
       </c>
       <c r="F21">
-        <v>-0.02979357617477578</v>
+        <v>-0.05383774626871811</v>
       </c>
       <c r="G21">
-        <v>-0.07787832532756303</v>
+        <v>-0.09610896527855606</v>
       </c>
       <c r="H21">
-        <v>0.03123714939992012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.04407087628275352</v>
+      </c>
+      <c r="I21">
+        <v>0.0008284698669878214</v>
+      </c>
+      <c r="J21">
+        <v>0.01325929772732634</v>
+      </c>
+      <c r="K21">
+        <v>0.1192088155787856</v>
+      </c>
+      <c r="L21">
+        <v>0.03241806426216617</v>
+      </c>
+      <c r="M21">
+        <v>-0.07992801340019413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02801138844770923</v>
+        <v>-0.04257089658398915</v>
       </c>
       <c r="C22">
-        <v>0.05082462581020687</v>
+        <v>0.0312136408765958</v>
       </c>
       <c r="D22">
-        <v>-0.1096836340802716</v>
+        <v>-0.6568049801708845</v>
       </c>
       <c r="E22">
-        <v>-0.4661108099015758</v>
+        <v>0.05322240226156644</v>
       </c>
       <c r="F22">
-        <v>0.1815812816159612</v>
+        <v>0.08039332590182242</v>
       </c>
       <c r="G22">
-        <v>0.03415003843606211</v>
+        <v>0.02433868287152285</v>
       </c>
       <c r="H22">
-        <v>0.2821002812775547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.0478437502991083</v>
+      </c>
+      <c r="I22">
+        <v>-0.1271538304777188</v>
+      </c>
+      <c r="J22">
+        <v>-0.05460272132974139</v>
+      </c>
+      <c r="K22">
+        <v>0.03701397044891867</v>
+      </c>
+      <c r="L22">
+        <v>0.03986244299737281</v>
+      </c>
+      <c r="M22">
+        <v>0.03352508526337866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.02891135140782524</v>
+        <v>-0.04329114829008549</v>
       </c>
       <c r="C23">
-        <v>0.04964342179213823</v>
+        <v>0.03142836901629103</v>
       </c>
       <c r="D23">
-        <v>-0.1090933088505632</v>
+        <v>-0.658424647931752</v>
       </c>
       <c r="E23">
-        <v>-0.4675842238788395</v>
+        <v>0.05435932239759236</v>
       </c>
       <c r="F23">
-        <v>0.1783984835444183</v>
+        <v>0.07575628390592558</v>
       </c>
       <c r="G23">
-        <v>0.03360772068680953</v>
+        <v>0.02453652883985732</v>
       </c>
       <c r="H23">
-        <v>0.2786962900140176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.04890389026461146</v>
+      </c>
+      <c r="I23">
+        <v>-0.1277451253643928</v>
+      </c>
+      <c r="J23">
+        <v>-0.04932682008457159</v>
+      </c>
+      <c r="K23">
+        <v>0.03364342053310885</v>
+      </c>
+      <c r="L23">
+        <v>0.04074290012461646</v>
+      </c>
+      <c r="M23">
+        <v>0.03428378212598317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06856323403986996</v>
+        <v>-0.07559921737099703</v>
       </c>
       <c r="C24">
-        <v>0.07905161594698459</v>
+        <v>0.07622754160547703</v>
       </c>
       <c r="D24">
-        <v>0.04509936608608386</v>
+        <v>0.01727820233602414</v>
       </c>
       <c r="E24">
-        <v>-0.03514514195213028</v>
+        <v>0.02672173906453311</v>
       </c>
       <c r="F24">
-        <v>-0.01294058844727533</v>
+        <v>-0.109274210278261</v>
       </c>
       <c r="G24">
-        <v>0.0154061658188003</v>
+        <v>0.008841133760061175</v>
       </c>
       <c r="H24">
-        <v>0.0002781714410065259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.06287084012032097</v>
+      </c>
+      <c r="I24">
+        <v>-0.02485971763436112</v>
+      </c>
+      <c r="J24">
+        <v>-0.05630982943118139</v>
+      </c>
+      <c r="K24">
+        <v>-0.03621099914217044</v>
+      </c>
+      <c r="L24">
+        <v>-0.004697901404106581</v>
+      </c>
+      <c r="M24">
+        <v>-0.05900753292408299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06029730337174911</v>
+        <v>-0.07228346641450137</v>
       </c>
       <c r="C25">
-        <v>0.04023880269185811</v>
+        <v>0.04900658894113969</v>
       </c>
       <c r="D25">
-        <v>0.04390979303768004</v>
+        <v>0.0305524162545279</v>
       </c>
       <c r="E25">
-        <v>-0.03917870903446498</v>
+        <v>0.02795211746134501</v>
       </c>
       <c r="F25">
-        <v>0.003402680111719623</v>
+        <v>-0.1112922345840281</v>
       </c>
       <c r="G25">
-        <v>0.02947302475644816</v>
+        <v>0.03078096820921173</v>
       </c>
       <c r="H25">
-        <v>-0.02563304769846128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.07621823046539349</v>
+      </c>
+      <c r="I25">
+        <v>-0.03467434001480794</v>
+      </c>
+      <c r="J25">
+        <v>-0.05703102550158977</v>
+      </c>
+      <c r="K25">
+        <v>-0.06424235956639547</v>
+      </c>
+      <c r="L25">
+        <v>-0.007180317268788214</v>
+      </c>
+      <c r="M25">
+        <v>-0.04409222693549416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03535481411944061</v>
+        <v>-0.03799275409345664</v>
       </c>
       <c r="C26">
-        <v>0.02422316986374524</v>
+        <v>0.0223387141538754</v>
       </c>
       <c r="D26">
-        <v>0.03689747206702016</v>
+        <v>-0.01439808285346323</v>
       </c>
       <c r="E26">
-        <v>0.002336573925836758</v>
+        <v>0.004747063736742309</v>
       </c>
       <c r="F26">
-        <v>0.04378040341097359</v>
+        <v>-0.03914332722568516</v>
       </c>
       <c r="G26">
-        <v>-0.002279242189342519</v>
+        <v>0.01299090411495456</v>
       </c>
       <c r="H26">
-        <v>0.03184447053208009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.03817192320685973</v>
+      </c>
+      <c r="I26">
+        <v>0.04466993435338836</v>
+      </c>
+      <c r="J26">
+        <v>0.01680152177334717</v>
+      </c>
+      <c r="K26">
+        <v>0.1436115819527481</v>
+      </c>
+      <c r="L26">
+        <v>-0.002808985274118058</v>
+      </c>
+      <c r="M26">
+        <v>0.004574129755041985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.115312214516136</v>
+        <v>-0.1378885165902613</v>
       </c>
       <c r="C28">
-        <v>-0.2959226541276157</v>
+        <v>-0.2888289946187706</v>
       </c>
       <c r="D28">
-        <v>0.04880831230301685</v>
+        <v>0.003688527459714239</v>
       </c>
       <c r="E28">
-        <v>-0.001390349685771945</v>
+        <v>0.02740414211857057</v>
       </c>
       <c r="F28">
-        <v>0.01554753728840617</v>
+        <v>0.0002505982842118748</v>
       </c>
       <c r="G28">
-        <v>-0.07160764895744698</v>
+        <v>-0.02409327618034857</v>
       </c>
       <c r="H28">
-        <v>-0.002438150448305445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.004544271910376183</v>
+      </c>
+      <c r="I28">
+        <v>0.02129267739405597</v>
+      </c>
+      <c r="J28">
+        <v>-0.0003689324979208166</v>
+      </c>
+      <c r="K28">
+        <v>0.0352987205523005</v>
+      </c>
+      <c r="L28">
+        <v>-0.009713996694077166</v>
+      </c>
+      <c r="M28">
+        <v>0.02262592813399459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04621679791531974</v>
+        <v>-0.04475563469595969</v>
       </c>
       <c r="C29">
-        <v>0.006034908736074195</v>
+        <v>0.02165821768868816</v>
       </c>
       <c r="D29">
-        <v>0.01100390618242191</v>
+        <v>0.0003238970205445656</v>
       </c>
       <c r="E29">
-        <v>-0.03271392041337617</v>
+        <v>0.01821927261854236</v>
       </c>
       <c r="F29">
-        <v>0.03511949512924582</v>
+        <v>-0.04793569861884631</v>
       </c>
       <c r="G29">
-        <v>0.008303188626295168</v>
+        <v>0.05864344535930146</v>
       </c>
       <c r="H29">
-        <v>-0.01896467332118094</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.04152457660574975</v>
+      </c>
+      <c r="I29">
+        <v>-0.004936410386371575</v>
+      </c>
+      <c r="J29">
+        <v>0.02577553148533242</v>
+      </c>
+      <c r="K29">
+        <v>0.0388140444668193</v>
+      </c>
+      <c r="L29">
+        <v>-0.01420764254312707</v>
+      </c>
+      <c r="M29">
+        <v>0.01070751446614236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1186101833751975</v>
+        <v>-0.09942898882799714</v>
       </c>
       <c r="C30">
-        <v>0.07407719722480138</v>
+        <v>0.0666175384868448</v>
       </c>
       <c r="D30">
-        <v>0.07431322402812492</v>
+        <v>0.001089616019830596</v>
       </c>
       <c r="E30">
-        <v>-0.04982012515063123</v>
+        <v>0.0445594841468263</v>
       </c>
       <c r="F30">
-        <v>0.03948066702346435</v>
+        <v>-0.1602608110506562</v>
       </c>
       <c r="G30">
-        <v>-0.02483762957226932</v>
+        <v>0.006272064635893988</v>
       </c>
       <c r="H30">
-        <v>-0.002749486011643835</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1256364147794213</v>
+      </c>
+      <c r="I30">
+        <v>-0.1908854076217416</v>
+      </c>
+      <c r="J30">
+        <v>-0.0392978158066397</v>
+      </c>
+      <c r="K30">
+        <v>0.2681087867238759</v>
+      </c>
+      <c r="L30">
+        <v>-0.2382650104869896</v>
+      </c>
+      <c r="M30">
+        <v>0.1336050259709448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04750124098463295</v>
+        <v>-0.03518666282088624</v>
       </c>
       <c r="C31">
-        <v>0.02134658127902739</v>
+        <v>0.04277802788821887</v>
       </c>
       <c r="D31">
-        <v>0.005249926368115243</v>
+        <v>-0.006009079961554441</v>
       </c>
       <c r="E31">
-        <v>0.005311900037935371</v>
+        <v>-0.004672782431500045</v>
       </c>
       <c r="F31">
-        <v>0.03635533968876487</v>
+        <v>-0.01598346239787257</v>
       </c>
       <c r="G31">
-        <v>0.02067353930415807</v>
+        <v>0.04985986891951978</v>
       </c>
       <c r="H31">
-        <v>0.03336755174879258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03306590926190034</v>
+      </c>
+      <c r="I31">
+        <v>0.02788652717010792</v>
+      </c>
+      <c r="J31">
+        <v>0.01004582755085801</v>
+      </c>
+      <c r="K31">
+        <v>-0.009166237327893907</v>
+      </c>
+      <c r="L31">
+        <v>-0.03536376426852931</v>
+      </c>
+      <c r="M31">
+        <v>-0.0130253406351195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02389713986297442</v>
+        <v>-0.04903044150770845</v>
       </c>
       <c r="C32">
-        <v>-0.006887221895079773</v>
+        <v>-0.004231771854950443</v>
       </c>
       <c r="D32">
-        <v>-0.04194755013465093</v>
+        <v>-0.002859425965809639</v>
       </c>
       <c r="E32">
-        <v>-0.08105821972387368</v>
+        <v>-0.003711835637357045</v>
       </c>
       <c r="F32">
-        <v>-0.000277660463186694</v>
+        <v>-0.08981889522677909</v>
       </c>
       <c r="G32">
-        <v>0.04067550842709101</v>
+        <v>0.003527134870686047</v>
       </c>
       <c r="H32">
-        <v>0.05601185249024462</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.008093852534591849</v>
+      </c>
+      <c r="I32">
+        <v>0.08074912391295945</v>
+      </c>
+      <c r="J32">
+        <v>-0.02698988746527586</v>
+      </c>
+      <c r="K32">
+        <v>0.04461495026977551</v>
+      </c>
+      <c r="L32">
+        <v>-0.07103518226920967</v>
+      </c>
+      <c r="M32">
+        <v>0.1068665709472094</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09835216818873689</v>
+        <v>-0.09524689958018212</v>
       </c>
       <c r="C33">
-        <v>0.05840467556692528</v>
+        <v>0.0661955990364472</v>
       </c>
       <c r="D33">
-        <v>0.008653933549739864</v>
+        <v>0.007948934497583663</v>
       </c>
       <c r="E33">
-        <v>-0.003241304597124869</v>
+        <v>-0.0188708920724493</v>
       </c>
       <c r="F33">
-        <v>0.03147259889935212</v>
+        <v>-0.06696256733433961</v>
       </c>
       <c r="G33">
-        <v>0.03327187334661104</v>
+        <v>0.05473206627281473</v>
       </c>
       <c r="H33">
-        <v>0.02775120888273687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.03928049258811049</v>
+      </c>
+      <c r="I33">
+        <v>-0.0198140123984946</v>
+      </c>
+      <c r="J33">
+        <v>0.01724005100164175</v>
+      </c>
+      <c r="K33">
+        <v>0.04272608027510485</v>
+      </c>
+      <c r="L33">
+        <v>-0.0003818281324304215</v>
+      </c>
+      <c r="M33">
+        <v>-0.03905205778438973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05080772183646332</v>
+        <v>-0.06348337879395953</v>
       </c>
       <c r="C34">
-        <v>0.07357012998554391</v>
+        <v>0.06370028452364465</v>
       </c>
       <c r="D34">
-        <v>0.02719341970429018</v>
+        <v>0.02784513289788162</v>
       </c>
       <c r="E34">
-        <v>-0.04246452788947229</v>
+        <v>0.01584197256472431</v>
       </c>
       <c r="F34">
-        <v>0.008545325669891985</v>
+        <v>-0.0965792199647286</v>
       </c>
       <c r="G34">
-        <v>0.01441693720366207</v>
+        <v>0.02533699882333298</v>
       </c>
       <c r="H34">
-        <v>-0.004679448433767609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.06539686350223881</v>
+      </c>
+      <c r="I34">
+        <v>-0.01254410864733257</v>
+      </c>
+      <c r="J34">
+        <v>-0.04517043695680594</v>
+      </c>
+      <c r="K34">
+        <v>-0.04463066511513088</v>
+      </c>
+      <c r="L34">
+        <v>-0.009158440847440219</v>
+      </c>
+      <c r="M34">
+        <v>-0.0568009150289249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03723552045589349</v>
+        <v>-0.02903203607501991</v>
       </c>
       <c r="C35">
-        <v>0.01751025323153827</v>
+        <v>0.02373975604762087</v>
       </c>
       <c r="D35">
-        <v>0.005948817204669181</v>
+        <v>-0.0002699204734065243</v>
       </c>
       <c r="E35">
-        <v>-0.02748916622406063</v>
+        <v>-0.003457410535880749</v>
       </c>
       <c r="F35">
-        <v>0.03507133233739156</v>
+        <v>-0.01849995065108848</v>
       </c>
       <c r="G35">
-        <v>0.02114622330796952</v>
+        <v>0.03412746545584999</v>
       </c>
       <c r="H35">
-        <v>0.0338228235710013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.05276119242251134</v>
+      </c>
+      <c r="I35">
+        <v>-0.02376855589581111</v>
+      </c>
+      <c r="J35">
+        <v>-0.03771105607988597</v>
+      </c>
+      <c r="K35">
+        <v>0.03808854973234124</v>
+      </c>
+      <c r="L35">
+        <v>-0.04397186026584367</v>
+      </c>
+      <c r="M35">
+        <v>0.008299116141906244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02516524756863973</v>
+        <v>-0.0294008205077175</v>
       </c>
       <c r="C36">
-        <v>0.01460863349354731</v>
+        <v>0.01757387582830286</v>
       </c>
       <c r="D36">
-        <v>0.02610852861750179</v>
+        <v>-0.01254603964426642</v>
       </c>
       <c r="E36">
-        <v>-0.02197372941435336</v>
+        <v>0.01895986462937128</v>
       </c>
       <c r="F36">
-        <v>0.02532784312832555</v>
+        <v>-0.05333037500758757</v>
       </c>
       <c r="G36">
-        <v>0.0214072342617825</v>
+        <v>0.02427285089150031</v>
       </c>
       <c r="H36">
-        <v>0.01327091542910715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.05111378332329589</v>
+      </c>
+      <c r="I36">
+        <v>-0.003775234279004085</v>
+      </c>
+      <c r="J36">
+        <v>0.01146986191141691</v>
+      </c>
+      <c r="K36">
+        <v>0.0504765886983374</v>
+      </c>
+      <c r="L36">
+        <v>-0.00973096117252769</v>
+      </c>
+      <c r="M36">
+        <v>-0.0372599706377461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.03998470021865688</v>
+        <v>-0.032951375052879</v>
       </c>
       <c r="C38">
-        <v>0.02623388781773466</v>
+        <v>0.04683335945488167</v>
       </c>
       <c r="D38">
-        <v>-0.03313654546199753</v>
+        <v>-0.02522704127944961</v>
       </c>
       <c r="E38">
-        <v>-0.04846831877508302</v>
+        <v>-9.09671295341702e-05</v>
       </c>
       <c r="F38">
-        <v>0.003956119107106618</v>
+        <v>0.04286706177668216</v>
       </c>
       <c r="G38">
-        <v>0.006550855229078884</v>
+        <v>0.03417999527919184</v>
       </c>
       <c r="H38">
-        <v>0.04837251463340408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.08078037793597415</v>
+      </c>
+      <c r="I38">
+        <v>-0.01699746553407915</v>
+      </c>
+      <c r="J38">
+        <v>-0.02530128296512419</v>
+      </c>
+      <c r="K38">
+        <v>0.1652513769830898</v>
+      </c>
+      <c r="L38">
+        <v>0.09324873687353961</v>
+      </c>
+      <c r="M38">
+        <v>0.0446153163652158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09265087713968993</v>
+        <v>-0.09472603823045549</v>
       </c>
       <c r="C39">
-        <v>0.09768965859035987</v>
+        <v>0.0857459761548446</v>
       </c>
       <c r="D39">
-        <v>0.01749046090898683</v>
+        <v>0.07584736352646196</v>
       </c>
       <c r="E39">
-        <v>-0.04173438695475008</v>
+        <v>0.006531690922831368</v>
       </c>
       <c r="F39">
-        <v>-0.02538215132001228</v>
+        <v>-0.1459579302050164</v>
       </c>
       <c r="G39">
-        <v>0.01269621423231309</v>
+        <v>0.04231684746649278</v>
       </c>
       <c r="H39">
-        <v>-0.005696120570778338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08615245272048411</v>
+      </c>
+      <c r="I39">
+        <v>-0.07128255991482149</v>
+      </c>
+      <c r="J39">
+        <v>-0.1803576895336137</v>
+      </c>
+      <c r="K39">
+        <v>0.01269536031252738</v>
+      </c>
+      <c r="L39">
+        <v>-0.07630989455657451</v>
+      </c>
+      <c r="M39">
+        <v>0.02826714787887303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.06101238970577765</v>
+        <v>-0.03934279400143151</v>
       </c>
       <c r="C40">
-        <v>0.02468674480480059</v>
+        <v>0.05465662660328623</v>
       </c>
       <c r="D40">
-        <v>-0.0182232885295402</v>
+        <v>-0.04865678124721751</v>
       </c>
       <c r="E40">
-        <v>-0.1617520949523974</v>
+        <v>-0.007917824403971641</v>
       </c>
       <c r="F40">
-        <v>0.04979512033601049</v>
+        <v>-0.131073832193782</v>
       </c>
       <c r="G40">
-        <v>0.0566252288581295</v>
+        <v>-0.03429969516098082</v>
       </c>
       <c r="H40">
-        <v>0.02238386946798389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.003072141355748597</v>
+      </c>
+      <c r="I40">
+        <v>-0.008385620556594583</v>
+      </c>
+      <c r="J40">
+        <v>-0.07794394367295614</v>
+      </c>
+      <c r="K40">
+        <v>0.1232182998558802</v>
+      </c>
+      <c r="L40">
+        <v>-0.04957978449916562</v>
+      </c>
+      <c r="M40">
+        <v>0.03564766566917422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04289804461781532</v>
+        <v>-0.0357032830943658</v>
       </c>
       <c r="C41">
-        <v>0.04897096328562251</v>
+        <v>0.03651706430821754</v>
       </c>
       <c r="D41">
-        <v>0.006067000485089243</v>
+        <v>0.01892296214716687</v>
       </c>
       <c r="E41">
-        <v>-0.006221402649593647</v>
+        <v>-0.0009407276923330918</v>
       </c>
       <c r="F41">
-        <v>0.02047033561014022</v>
+        <v>-0.015957170954983</v>
       </c>
       <c r="G41">
-        <v>0.01972762224140479</v>
+        <v>0.02410498526429783</v>
       </c>
       <c r="H41">
-        <v>0.0178521548145768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.004724457486407096</v>
+      </c>
+      <c r="I41">
+        <v>0.01711813486169906</v>
+      </c>
+      <c r="J41">
+        <v>-0.01403634689558277</v>
+      </c>
+      <c r="K41">
+        <v>0.03129455644099502</v>
+      </c>
+      <c r="L41">
+        <v>-0.01923723417484757</v>
+      </c>
+      <c r="M41">
+        <v>-0.01289703016471465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05279725722320923</v>
+        <v>-0.05184726542356056</v>
       </c>
       <c r="C43">
-        <v>0.03919713086749803</v>
+        <v>0.04809477277480007</v>
       </c>
       <c r="D43">
-        <v>0.0266053885940526</v>
+        <v>-0.01157861870645108</v>
       </c>
       <c r="E43">
-        <v>-0.02437166198703626</v>
+        <v>0.02047939929189376</v>
       </c>
       <c r="F43">
-        <v>0.008463041135650487</v>
+        <v>-0.01287240131252056</v>
       </c>
       <c r="G43">
-        <v>0.0001687943681505586</v>
+        <v>0.04811801767021804</v>
       </c>
       <c r="H43">
-        <v>0.05951751220416065</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.006131961009272673</v>
+      </c>
+      <c r="I43">
+        <v>0.003089620473428861</v>
+      </c>
+      <c r="J43">
+        <v>-0.01865537417759832</v>
+      </c>
+      <c r="K43">
+        <v>0.01219059395589029</v>
+      </c>
+      <c r="L43">
+        <v>-0.003298462028100805</v>
+      </c>
+      <c r="M43">
+        <v>-0.03149366264914225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.04888665946696658</v>
+        <v>-0.08358989555842583</v>
       </c>
       <c r="C44">
-        <v>0.02576960713026113</v>
+        <v>0.05854311985249872</v>
       </c>
       <c r="D44">
-        <v>0.06259809238214298</v>
+        <v>-0.06632324017670584</v>
       </c>
       <c r="E44">
-        <v>-0.1351500196943397</v>
+        <v>0.09976676308952948</v>
       </c>
       <c r="F44">
-        <v>0.0001661624078356133</v>
+        <v>-0.1679993780962185</v>
       </c>
       <c r="G44">
-        <v>0.0189405296888502</v>
+        <v>0.03478042934201225</v>
       </c>
       <c r="H44">
-        <v>-0.016060399295366</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.08367361417193128</v>
+      </c>
+      <c r="I44">
+        <v>-0.016941657453108</v>
+      </c>
+      <c r="J44">
+        <v>-0.05290464568113253</v>
+      </c>
+      <c r="K44">
+        <v>0.06226851734632648</v>
+      </c>
+      <c r="L44">
+        <v>-0.03625324994018798</v>
+      </c>
+      <c r="M44">
+        <v>0.03515285082959498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01985957726395668</v>
+        <v>-0.03912945583025949</v>
       </c>
       <c r="C46">
-        <v>0.03517820739550359</v>
+        <v>0.04024686685056438</v>
       </c>
       <c r="D46">
-        <v>0.01286008534018801</v>
+        <v>-0.04142706946657292</v>
       </c>
       <c r="E46">
-        <v>-0.05410833413148368</v>
+        <v>0.02916751178407559</v>
       </c>
       <c r="F46">
-        <v>0.01675521411920716</v>
+        <v>-0.0232666667414521</v>
       </c>
       <c r="G46">
-        <v>0.007996855819625743</v>
+        <v>0.02348093272460267</v>
       </c>
       <c r="H46">
-        <v>-0.007091846150516216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05009919017142944</v>
+      </c>
+      <c r="I46">
+        <v>0.01710030145331009</v>
+      </c>
+      <c r="J46">
+        <v>0.03727992706633826</v>
+      </c>
+      <c r="K46">
+        <v>0.07215997113421153</v>
+      </c>
+      <c r="L46">
+        <v>0.01185727102632827</v>
+      </c>
+      <c r="M46">
+        <v>-0.00705536916576993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.029511971844025</v>
+        <v>-0.04383757251005058</v>
       </c>
       <c r="C47">
-        <v>-0.005492932701207001</v>
+        <v>0.02648014008905379</v>
       </c>
       <c r="D47">
-        <v>-0.004364556036919287</v>
+        <v>-0.02148090188359392</v>
       </c>
       <c r="E47">
-        <v>-0.06564872975740155</v>
+        <v>0.003253386928569697</v>
       </c>
       <c r="F47">
-        <v>0.02863186415464272</v>
+        <v>-0.032038832864142</v>
       </c>
       <c r="G47">
-        <v>0.03286218175834616</v>
+        <v>0.04123573845832124</v>
       </c>
       <c r="H47">
-        <v>0.003876360630686293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.0139741684507271</v>
+      </c>
+      <c r="I47">
+        <v>-0.02514402628159476</v>
+      </c>
+      <c r="J47">
+        <v>0.01964844428636659</v>
+      </c>
+      <c r="K47">
+        <v>0.0120548986061284</v>
+      </c>
+      <c r="L47">
+        <v>-0.007385105703586173</v>
+      </c>
+      <c r="M47">
+        <v>-0.05734795456199394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03429997373503848</v>
+        <v>-0.04283513710273271</v>
       </c>
       <c r="C48">
-        <v>0.02222926898999748</v>
+        <v>0.01880044294728564</v>
       </c>
       <c r="D48">
-        <v>0.005477938123873069</v>
+        <v>-0.01287264740706651</v>
       </c>
       <c r="E48">
-        <v>-0.04157382488301274</v>
+        <v>0.0003662441770576817</v>
       </c>
       <c r="F48">
-        <v>0.03911498032626081</v>
+        <v>-0.05915748605757771</v>
       </c>
       <c r="G48">
-        <v>0.01992230458325471</v>
+        <v>-0.0005903416596102812</v>
       </c>
       <c r="H48">
-        <v>0.04654028898004742</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.06709481910838253</v>
+      </c>
+      <c r="I48">
+        <v>0.01289185625413062</v>
+      </c>
+      <c r="J48">
+        <v>-0.01379128291838316</v>
+      </c>
+      <c r="K48">
+        <v>0.02576468397176144</v>
+      </c>
+      <c r="L48">
+        <v>-0.05506176552687797</v>
+      </c>
+      <c r="M48">
+        <v>-0.02823391181515255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1870588352639775</v>
+        <v>-0.2225538394545961</v>
       </c>
       <c r="C49">
-        <v>0.1218236926694622</v>
+        <v>0.08400042298084701</v>
       </c>
       <c r="D49">
-        <v>0.07064731643443276</v>
+        <v>0.06580749026233952</v>
       </c>
       <c r="E49">
-        <v>0.05898170440906318</v>
+        <v>0.02249997087933633</v>
       </c>
       <c r="F49">
-        <v>0.0008482957944772735</v>
+        <v>0.2219085356954655</v>
       </c>
       <c r="G49">
-        <v>-0.1891860401885213</v>
+        <v>-0.1930828066181138</v>
       </c>
       <c r="H49">
-        <v>-0.06901881383809098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.03834859702342911</v>
+      </c>
+      <c r="I49">
+        <v>-0.08543475176864297</v>
+      </c>
+      <c r="J49">
+        <v>-0.1617218749294232</v>
+      </c>
+      <c r="K49">
+        <v>-0.05743690275052727</v>
+      </c>
+      <c r="L49">
+        <v>0.211315241197043</v>
+      </c>
+      <c r="M49">
+        <v>-0.03236540733732891</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05400201724121291</v>
+        <v>-0.04319564650905786</v>
       </c>
       <c r="C50">
-        <v>0.03219939580647297</v>
+        <v>0.04310966185118892</v>
       </c>
       <c r="D50">
-        <v>0.008016415403740719</v>
+        <v>-0.001974038426564924</v>
       </c>
       <c r="E50">
-        <v>-0.0170908473135619</v>
+        <v>-0.01072842365434631</v>
       </c>
       <c r="F50">
-        <v>0.05743695833739883</v>
+        <v>-0.04065524909519505</v>
       </c>
       <c r="G50">
-        <v>0.04785301293001416</v>
+        <v>0.05511557386061482</v>
       </c>
       <c r="H50">
-        <v>0.005263375819132492</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02902966957106323</v>
+      </c>
+      <c r="I50">
+        <v>-0.003353549967760431</v>
+      </c>
+      <c r="J50">
+        <v>0.04578687508198551</v>
+      </c>
+      <c r="K50">
+        <v>0.0234009712379984</v>
+      </c>
+      <c r="L50">
+        <v>-0.02435348000182662</v>
+      </c>
+      <c r="M50">
+        <v>0.03924921386074894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02400221406772349</v>
+        <v>-0.03092978900875511</v>
       </c>
       <c r="C51">
-        <v>0.007711109069061068</v>
+        <v>0.004693588157084615</v>
       </c>
       <c r="D51">
-        <v>-0.004252732176340642</v>
+        <v>0.001981224586034479</v>
       </c>
       <c r="E51">
-        <v>-0.01903722036488505</v>
+        <v>0.01986709906722628</v>
       </c>
       <c r="F51">
-        <v>-0.01811309092041441</v>
+        <v>0.01661369895525984</v>
       </c>
       <c r="G51">
-        <v>-0.01712255865727794</v>
+        <v>-0.0110835276650596</v>
       </c>
       <c r="H51">
-        <v>-0.02226667217110302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01298037148641957</v>
+      </c>
+      <c r="I51">
+        <v>-0.02619302751266601</v>
+      </c>
+      <c r="J51">
+        <v>-0.05857948283883084</v>
+      </c>
+      <c r="K51">
+        <v>-0.07725204049241534</v>
+      </c>
+      <c r="L51">
+        <v>0.01445215815210183</v>
+      </c>
+      <c r="M51">
+        <v>-0.0166084464157254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.003948062652995387</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.001767508672551479</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01222924413617343</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.001057846407638634</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.009425830847324995</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.005456573584588462</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.005739926820773498</v>
+      </c>
+      <c r="I52">
+        <v>0.02772669476031632</v>
+      </c>
+      <c r="J52">
+        <v>-2.342775722392498e-05</v>
+      </c>
+      <c r="K52">
+        <v>-0.02612297476359206</v>
+      </c>
+      <c r="L52">
+        <v>-0.004234172113281077</v>
+      </c>
+      <c r="M52">
+        <v>0.004262984292230917</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1668760159000316</v>
+        <v>-0.1533750975479607</v>
       </c>
       <c r="C53">
-        <v>0.0220230065098134</v>
+        <v>0.04895040584566933</v>
       </c>
       <c r="D53">
-        <v>0.03921726800844469</v>
+        <v>0.01870407275104012</v>
       </c>
       <c r="E53">
-        <v>0.08067630360647975</v>
+        <v>-0.006009293965164446</v>
       </c>
       <c r="F53">
-        <v>-0.01780606352210071</v>
+        <v>0.07225591633287856</v>
       </c>
       <c r="G53">
-        <v>0.2653202603059026</v>
+        <v>0.2304834661668923</v>
       </c>
       <c r="H53">
-        <v>0.01738114773134555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.07777179079983386</v>
+      </c>
+      <c r="I53">
+        <v>0.02296448639134563</v>
+      </c>
+      <c r="J53">
+        <v>0.09127691624633816</v>
+      </c>
+      <c r="K53">
+        <v>-0.04553590204641837</v>
+      </c>
+      <c r="L53">
+        <v>0.03713093838175465</v>
+      </c>
+      <c r="M53">
+        <v>0.09930149951532634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05048120583228761</v>
+        <v>-0.05850599173518108</v>
       </c>
       <c r="C54">
-        <v>0.03408976099056388</v>
+        <v>0.03003306205551958</v>
       </c>
       <c r="D54">
-        <v>0.03661152921497246</v>
+        <v>-0.01732611936252271</v>
       </c>
       <c r="E54">
-        <v>-0.0267491308832598</v>
+        <v>0.0229544560537376</v>
       </c>
       <c r="F54">
-        <v>0.02028136673476333</v>
+        <v>-0.09915091039128258</v>
       </c>
       <c r="G54">
-        <v>0.003754789242736519</v>
+        <v>0.0166451345173223</v>
       </c>
       <c r="H54">
-        <v>0.02707182499777433</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.06637468248255335</v>
+      </c>
+      <c r="I54">
+        <v>0.05924259930594002</v>
+      </c>
+      <c r="J54">
+        <v>0.06861405553225805</v>
+      </c>
+      <c r="K54">
+        <v>0.0524562134281417</v>
+      </c>
+      <c r="L54">
+        <v>-0.03772450931287893</v>
+      </c>
+      <c r="M54">
+        <v>-0.03257939171615774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.0925925201042232</v>
+        <v>-0.08774263524365249</v>
       </c>
       <c r="C55">
-        <v>0.006357389230771328</v>
+        <v>0.03849367515949598</v>
       </c>
       <c r="D55">
-        <v>0.03223151464549707</v>
+        <v>0.02728807132297757</v>
       </c>
       <c r="E55">
-        <v>0.01707837397098802</v>
+        <v>0.009500532751411042</v>
       </c>
       <c r="F55">
-        <v>0.015941591896072</v>
+        <v>-0.0003020217764362657</v>
       </c>
       <c r="G55">
-        <v>0.2345476625259995</v>
+        <v>0.1688430687221802</v>
       </c>
       <c r="H55">
-        <v>-0.0009821808449968978</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.02721727604947093</v>
+      </c>
+      <c r="I55">
+        <v>0.0093834393059765</v>
+      </c>
+      <c r="J55">
+        <v>0.05639865616546812</v>
+      </c>
+      <c r="K55">
+        <v>-0.03568770063360508</v>
+      </c>
+      <c r="L55">
+        <v>0.02231270130673418</v>
+      </c>
+      <c r="M55">
+        <v>0.0646928451635788</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1713960464286388</v>
+        <v>-0.1471048456275893</v>
       </c>
       <c r="C56">
-        <v>0.02123320638081113</v>
+        <v>0.06881774866167775</v>
       </c>
       <c r="D56">
-        <v>0.06829811786548233</v>
+        <v>0.03135651605281231</v>
       </c>
       <c r="E56">
-        <v>0.08337964644347379</v>
+        <v>0.009461945683736386</v>
       </c>
       <c r="F56">
-        <v>-0.03004279708147092</v>
+        <v>0.04361848509237223</v>
       </c>
       <c r="G56">
-        <v>0.2314528822677553</v>
+        <v>0.2333504683904835</v>
       </c>
       <c r="H56">
-        <v>0.04751933304819658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1137834721164789</v>
+      </c>
+      <c r="I56">
+        <v>0.03338498122150997</v>
+      </c>
+      <c r="J56">
+        <v>0.06676351645372364</v>
+      </c>
+      <c r="K56">
+        <v>-0.02873172075349603</v>
+      </c>
+      <c r="L56">
+        <v>0.01491703750909936</v>
+      </c>
+      <c r="M56">
+        <v>0.06988426569640561</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.05059327713161338</v>
+        <v>-0.04242663276891113</v>
       </c>
       <c r="C58">
-        <v>0.03503767325611161</v>
+        <v>0.03105385109283992</v>
       </c>
       <c r="D58">
-        <v>0.04462971468135363</v>
+        <v>-0.0799746278073637</v>
       </c>
       <c r="E58">
-        <v>-0.3031737882266246</v>
+        <v>0.02954015466260172</v>
       </c>
       <c r="F58">
-        <v>0.1479586958604846</v>
+        <v>-0.03135199975532649</v>
       </c>
       <c r="G58">
-        <v>-0.142428588785429</v>
+        <v>-0.05955440517710068</v>
       </c>
       <c r="H58">
-        <v>-0.006989792965142141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.2267616326363653</v>
+      </c>
+      <c r="I58">
+        <v>-0.1914692251168705</v>
+      </c>
+      <c r="J58">
+        <v>-0.09069588305722477</v>
+      </c>
+      <c r="K58">
+        <v>-0.2471992790359883</v>
+      </c>
+      <c r="L58">
+        <v>-0.4730102155333194</v>
+      </c>
+      <c r="M58">
+        <v>-0.2252950948326566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.246308507335021</v>
+        <v>-0.2293889002648845</v>
       </c>
       <c r="C59">
-        <v>-0.4078518522076116</v>
+        <v>-0.3055103053925659</v>
       </c>
       <c r="D59">
-        <v>0.05516067230936773</v>
+        <v>0.03891784703769346</v>
       </c>
       <c r="E59">
-        <v>-0.03510966800758227</v>
+        <v>0.01257486936680073</v>
       </c>
       <c r="F59">
-        <v>-0.09026413576815358</v>
+        <v>-0.02388698668241764</v>
       </c>
       <c r="G59">
-        <v>0.03049233460144376</v>
+        <v>0.06050730089523627</v>
       </c>
       <c r="H59">
-        <v>0.02429621070405465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.07852489412017537</v>
+      </c>
+      <c r="I59">
+        <v>0.07887655872851167</v>
+      </c>
+      <c r="J59">
+        <v>-0.03969112213121413</v>
+      </c>
+      <c r="K59">
+        <v>-0.07402751019023107</v>
+      </c>
+      <c r="L59">
+        <v>0.01437028069775539</v>
+      </c>
+      <c r="M59">
+        <v>-0.01269853931269004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.245575290039285</v>
+        <v>-0.2406260734738048</v>
       </c>
       <c r="C60">
-        <v>0.08560237398900986</v>
+        <v>0.1154493868175986</v>
       </c>
       <c r="D60">
-        <v>0.08804618660671444</v>
+        <v>0.0658463260839095</v>
       </c>
       <c r="E60">
-        <v>-0.0100119726678953</v>
+        <v>0.03475608184762543</v>
       </c>
       <c r="F60">
-        <v>-0.03221688021933176</v>
+        <v>0.1095098073603473</v>
       </c>
       <c r="G60">
-        <v>-0.06211369527951709</v>
+        <v>-0.06794759432886721</v>
       </c>
       <c r="H60">
-        <v>-0.08837880013426294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.09849729903903159</v>
+      </c>
+      <c r="I60">
+        <v>-0.09713519905750899</v>
+      </c>
+      <c r="J60">
+        <v>0.08680107598551227</v>
+      </c>
+      <c r="K60">
+        <v>-0.1262706872309352</v>
+      </c>
+      <c r="L60">
+        <v>0.06454683215106426</v>
+      </c>
+      <c r="M60">
+        <v>0.02331133673178595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07719144925105358</v>
+        <v>-0.08694296739769322</v>
       </c>
       <c r="C61">
-        <v>0.05491952088863814</v>
+        <v>0.06078716546193342</v>
       </c>
       <c r="D61">
-        <v>0.01947849858946121</v>
+        <v>0.04100997410034601</v>
       </c>
       <c r="E61">
-        <v>-0.008848528913864945</v>
+        <v>0.02102535141378278</v>
       </c>
       <c r="F61">
-        <v>0.02004780112936436</v>
+        <v>-0.1088785151303685</v>
       </c>
       <c r="G61">
-        <v>0.01537624370679194</v>
+        <v>0.06678056300364492</v>
       </c>
       <c r="H61">
-        <v>0.004243290603862426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.04470879492075649</v>
+      </c>
+      <c r="I61">
+        <v>-0.0141407287465254</v>
+      </c>
+      <c r="J61">
+        <v>-0.08442244858109972</v>
+      </c>
+      <c r="K61">
+        <v>0.01312249573163803</v>
+      </c>
+      <c r="L61">
+        <v>-0.03089417341408602</v>
+      </c>
+      <c r="M61">
+        <v>0.01154984207173157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1641703428097178</v>
+        <v>-0.1458866894723757</v>
       </c>
       <c r="C62">
-        <v>0.05102957242105381</v>
+        <v>0.07639079627307042</v>
       </c>
       <c r="D62">
-        <v>0.01828102511406102</v>
+        <v>0.03411546598444335</v>
       </c>
       <c r="E62">
-        <v>0.1262291592030864</v>
+        <v>-0.03029743882947403</v>
       </c>
       <c r="F62">
-        <v>-0.0352997903839914</v>
+        <v>0.02801423625424024</v>
       </c>
       <c r="G62">
-        <v>0.2499197777909694</v>
+        <v>0.2029593759647704</v>
       </c>
       <c r="H62">
-        <v>0.01394982571713156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.06833315605941309</v>
+      </c>
+      <c r="I62">
+        <v>0.01851809629338889</v>
+      </c>
+      <c r="J62">
+        <v>0.1221041598879324</v>
+      </c>
+      <c r="K62">
+        <v>0.03044411174612384</v>
+      </c>
+      <c r="L62">
+        <v>0.083650101358445</v>
+      </c>
+      <c r="M62">
+        <v>0.07492877318657253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04517265935842434</v>
+        <v>-0.04495734357312467</v>
       </c>
       <c r="C63">
-        <v>0.046697809298772</v>
+        <v>0.02995717150816089</v>
       </c>
       <c r="D63">
-        <v>0.02358837943702227</v>
+        <v>0.006521955894718841</v>
       </c>
       <c r="E63">
-        <v>-0.003765061373497764</v>
+        <v>-0.005425245337805882</v>
       </c>
       <c r="F63">
-        <v>0.0273834180260322</v>
+        <v>-0.05924522243751467</v>
       </c>
       <c r="G63">
-        <v>0.03535243303688609</v>
+        <v>0.01400377731965246</v>
       </c>
       <c r="H63">
-        <v>-0.02752252495585553</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.05645100969601888</v>
+      </c>
+      <c r="I63">
+        <v>-0.02006408224871092</v>
+      </c>
+      <c r="J63">
+        <v>0.03205834354462784</v>
+      </c>
+      <c r="K63">
+        <v>0.02423623384776792</v>
+      </c>
+      <c r="L63">
+        <v>-0.0136183033452434</v>
+      </c>
+      <c r="M63">
+        <v>6.352706966459095e-06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.100198559071633</v>
+        <v>-0.1016698459934587</v>
       </c>
       <c r="C64">
-        <v>0.03127208380921671</v>
+        <v>0.04744344242741154</v>
       </c>
       <c r="D64">
-        <v>0.04018014025132632</v>
+        <v>-0.0006515107020450696</v>
       </c>
       <c r="E64">
-        <v>-0.03920394304315773</v>
+        <v>0.04214990098956696</v>
       </c>
       <c r="F64">
-        <v>0.03293167608345792</v>
+        <v>-0.055778454995729</v>
       </c>
       <c r="G64">
-        <v>-0.02116528603959779</v>
+        <v>-0.005834262367734014</v>
       </c>
       <c r="H64">
-        <v>-0.02454684964694959</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.04408605360659371</v>
+      </c>
+      <c r="I64">
+        <v>-0.05236077267360302</v>
+      </c>
+      <c r="J64">
+        <v>-0.02116772650812691</v>
+      </c>
+      <c r="K64">
+        <v>0.04766563753293706</v>
+      </c>
+      <c r="L64">
+        <v>-0.01146704887434397</v>
+      </c>
+      <c r="M64">
+        <v>0.06311669458517136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1277874770184401</v>
+        <v>-0.1244957638795924</v>
       </c>
       <c r="C65">
-        <v>0.06495589440632704</v>
+        <v>0.04123199315554039</v>
       </c>
       <c r="D65">
-        <v>0.06797533420978692</v>
+        <v>0.01464518997291024</v>
       </c>
       <c r="E65">
-        <v>-0.1022431555071454</v>
+        <v>0.00874713915291216</v>
       </c>
       <c r="F65">
-        <v>0.142490005467355</v>
+        <v>-0.03171235283275324</v>
       </c>
       <c r="G65">
-        <v>-0.1126415425695788</v>
+        <v>-0.1903216190893027</v>
       </c>
       <c r="H65">
-        <v>-0.2716333432376014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.1029258778939407</v>
+      </c>
+      <c r="I65">
+        <v>-0.2488310297349386</v>
+      </c>
+      <c r="J65">
+        <v>0.6140216408913707</v>
+      </c>
+      <c r="K65">
+        <v>-0.0009094077588897743</v>
+      </c>
+      <c r="L65">
+        <v>0.0545558690474455</v>
+      </c>
+      <c r="M65">
+        <v>-0.114041268033117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1537023079397243</v>
+        <v>-0.1254613387013148</v>
       </c>
       <c r="C66">
-        <v>0.1476661141855594</v>
+        <v>0.1297227816151887</v>
       </c>
       <c r="D66">
-        <v>0.05261191745538232</v>
+        <v>0.1006968735650914</v>
       </c>
       <c r="E66">
-        <v>-0.006273990705710387</v>
+        <v>-0.004901409006671496</v>
       </c>
       <c r="F66">
-        <v>-0.05612479460716113</v>
+        <v>-0.1585313010128249</v>
       </c>
       <c r="G66">
-        <v>0.02090156506264438</v>
+        <v>0.06278715744419772</v>
       </c>
       <c r="H66">
-        <v>-0.02175534375513608</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.07056223494919181</v>
+      </c>
+      <c r="I66">
+        <v>-0.07472372012899439</v>
+      </c>
+      <c r="J66">
+        <v>-0.2421205115874682</v>
+      </c>
+      <c r="K66">
+        <v>0.04577126666844383</v>
+      </c>
+      <c r="L66">
+        <v>-0.03950942887447668</v>
+      </c>
+      <c r="M66">
+        <v>0.07863940289610546</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07209167386875344</v>
+        <v>-0.0824010994326938</v>
       </c>
       <c r="C67">
-        <v>0.04588427097841041</v>
+        <v>0.06632965520620637</v>
       </c>
       <c r="D67">
-        <v>0.0004465140846994839</v>
+        <v>-0.01741670799770175</v>
       </c>
       <c r="E67">
-        <v>-0.01462336628574385</v>
+        <v>0.03096149533238266</v>
       </c>
       <c r="F67">
-        <v>-0.007152120803847165</v>
+        <v>0.03503298963464258</v>
       </c>
       <c r="G67">
-        <v>-0.009487401237586688</v>
+        <v>0.04524751711480238</v>
       </c>
       <c r="H67">
-        <v>0.04824198875471451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.1162183410351186</v>
+      </c>
+      <c r="I67">
+        <v>-0.01046302527799342</v>
+      </c>
+      <c r="J67">
+        <v>-0.03777068288623214</v>
+      </c>
+      <c r="K67">
+        <v>0.1149050472430357</v>
+      </c>
+      <c r="L67">
+        <v>0.1117512140794888</v>
+      </c>
+      <c r="M67">
+        <v>0.02643033200449083</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1040389509743958</v>
+        <v>-0.1215309896193794</v>
       </c>
       <c r="C68">
-        <v>-0.2618023391697893</v>
+        <v>-0.2721258518937313</v>
       </c>
       <c r="D68">
-        <v>0.01352433330826202</v>
+        <v>0.006983372137419848</v>
       </c>
       <c r="E68">
-        <v>-0.007877187007123738</v>
+        <v>0.004086291064275547</v>
       </c>
       <c r="F68">
-        <v>0.02214853490478096</v>
+        <v>-0.01686242254464834</v>
       </c>
       <c r="G68">
-        <v>0.0264164508047617</v>
+        <v>0.02948732684341857</v>
       </c>
       <c r="H68">
-        <v>0.01777119513499465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.02785211361302236</v>
+      </c>
+      <c r="I68">
+        <v>-0.03197540797352482</v>
+      </c>
+      <c r="J68">
+        <v>0.04702918492419914</v>
+      </c>
+      <c r="K68">
+        <v>0.02658159034778374</v>
+      </c>
+      <c r="L68">
+        <v>-0.01110237683145901</v>
+      </c>
+      <c r="M68">
+        <v>0.008585352665487376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04508228378447695</v>
+        <v>-0.04415828832751816</v>
       </c>
       <c r="C69">
-        <v>0.02341777759936702</v>
+        <v>0.02224484424232283</v>
       </c>
       <c r="D69">
-        <v>0.0129085818881506</v>
+        <v>-0.0120794340787309</v>
       </c>
       <c r="E69">
-        <v>-0.01954314367754508</v>
+        <v>-0.004948106887442487</v>
       </c>
       <c r="F69">
-        <v>-0.03844550903558526</v>
+        <v>-0.01430739925722368</v>
       </c>
       <c r="G69">
-        <v>0.03849081328421149</v>
+        <v>0.04030907960523963</v>
       </c>
       <c r="H69">
-        <v>0.004385909556950346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.02758460977636943</v>
+      </c>
+      <c r="I69">
+        <v>-0.0231366508444992</v>
+      </c>
+      <c r="J69">
+        <v>-0.001920915802093599</v>
+      </c>
+      <c r="K69">
+        <v>0.0128322330460285</v>
+      </c>
+      <c r="L69">
+        <v>0.01136285999576346</v>
+      </c>
+      <c r="M69">
+        <v>-0.06654996549724584</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.03254445423359165</v>
+        <v>-0.05535579941951264</v>
       </c>
       <c r="C70">
-        <v>0.009181049572200643</v>
+        <v>0.03489385201292471</v>
       </c>
       <c r="D70">
-        <v>-0.01512843769668484</v>
+        <v>0.02983007922485474</v>
       </c>
       <c r="E70">
-        <v>-0.01366209701980184</v>
+        <v>0.001356688390663286</v>
       </c>
       <c r="F70">
-        <v>0.007588312080373858</v>
+        <v>0.01164535498242493</v>
       </c>
       <c r="G70">
-        <v>-0.08972317177809908</v>
+        <v>-0.0377293156038935</v>
       </c>
       <c r="H70">
-        <v>0.05713987255089874</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.07216561766157928</v>
+      </c>
+      <c r="I70">
+        <v>0.1159768649132081</v>
+      </c>
+      <c r="J70">
+        <v>-0.007886291685543624</v>
+      </c>
+      <c r="K70">
+        <v>0.1966108900728487</v>
+      </c>
+      <c r="L70">
+        <v>-0.02399943335855784</v>
+      </c>
+      <c r="M70">
+        <v>-0.1759277053367065</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1065587872349651</v>
+        <v>-0.1337612148373515</v>
       </c>
       <c r="C71">
-        <v>-0.276896664022682</v>
+        <v>-0.2810706492552088</v>
       </c>
       <c r="D71">
-        <v>0.04322278182783643</v>
+        <v>0.008561151292816694</v>
       </c>
       <c r="E71">
-        <v>0.00154745410650738</v>
+        <v>0.02492707848805677</v>
       </c>
       <c r="F71">
-        <v>0.01270245027606934</v>
+        <v>-0.02039472596130186</v>
       </c>
       <c r="G71">
-        <v>-0.005969720609786772</v>
+        <v>0.02402084464193205</v>
       </c>
       <c r="H71">
-        <v>0.02423134687772461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02237020921605819</v>
+      </c>
+      <c r="I71">
+        <v>-0.03050633853145855</v>
+      </c>
+      <c r="J71">
+        <v>0.002978623661488649</v>
+      </c>
+      <c r="K71">
+        <v>0.0192023525267732</v>
+      </c>
+      <c r="L71">
+        <v>0.01204397537582694</v>
+      </c>
+      <c r="M71">
+        <v>0.003393667750980468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1856645054419137</v>
+        <v>-0.1452263163259506</v>
       </c>
       <c r="C72">
-        <v>0.02611996781293627</v>
+        <v>0.03355492030345784</v>
       </c>
       <c r="D72">
-        <v>-0.2111625948227131</v>
+        <v>0.0004431171632825431</v>
       </c>
       <c r="E72">
-        <v>0.01505125854358457</v>
+        <v>-0.1800165173530458</v>
       </c>
       <c r="F72">
-        <v>-0.01580982481192019</v>
+        <v>-0.06012922842213023</v>
       </c>
       <c r="G72">
-        <v>0.004617234041922287</v>
+        <v>0.00498327298979278</v>
       </c>
       <c r="H72">
-        <v>-0.1192628441949891</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.05259131195764948</v>
+      </c>
+      <c r="I72">
+        <v>-0.05948234740983845</v>
+      </c>
+      <c r="J72">
+        <v>0.1440715864840158</v>
+      </c>
+      <c r="K72">
+        <v>-0.04709990979711903</v>
+      </c>
+      <c r="L72">
+        <v>0.07222634676538205</v>
+      </c>
+      <c r="M72">
+        <v>0.006555878689641497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2709209828544756</v>
+        <v>-0.2343089031894982</v>
       </c>
       <c r="C73">
-        <v>0.1844133861973786</v>
+        <v>0.1578376552657051</v>
       </c>
       <c r="D73">
-        <v>0.1562667733423194</v>
+        <v>0.1517413733473866</v>
       </c>
       <c r="E73">
-        <v>0.06083388865080579</v>
+        <v>0.08055889950654735</v>
       </c>
       <c r="F73">
-        <v>0.0925590564679062</v>
+        <v>0.3830888867705458</v>
       </c>
       <c r="G73">
-        <v>-0.1602648819433501</v>
+        <v>-0.2283096025001155</v>
       </c>
       <c r="H73">
-        <v>-0.160910972350969</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.01878751715008207</v>
+      </c>
+      <c r="I73">
+        <v>-0.37946632862472</v>
+      </c>
+      <c r="J73">
+        <v>-0.2730728906872255</v>
+      </c>
+      <c r="K73">
+        <v>-0.2560647512946064</v>
+      </c>
+      <c r="L73">
+        <v>0.09010680585977672</v>
+      </c>
+      <c r="M73">
+        <v>0.1364637009370494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09033564985444467</v>
+        <v>-0.08709724722090492</v>
       </c>
       <c r="C74">
-        <v>0.02588814423217701</v>
+        <v>0.06407323761292837</v>
       </c>
       <c r="D74">
-        <v>0.02226217027253841</v>
+        <v>0.009683136717317567</v>
       </c>
       <c r="E74">
-        <v>0.03071822640995209</v>
+        <v>-0.004460533566972262</v>
       </c>
       <c r="F74">
-        <v>0.07108089237633718</v>
+        <v>0.03686698055359919</v>
       </c>
       <c r="G74">
-        <v>0.1593279003341561</v>
+        <v>0.1510182692026289</v>
       </c>
       <c r="H74">
-        <v>-0.001946970208165102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.009768476492815561</v>
+      </c>
+      <c r="I74">
+        <v>-0.04567635214233819</v>
+      </c>
+      <c r="J74">
+        <v>0.01139846780083377</v>
+      </c>
+      <c r="K74">
+        <v>-0.01787350477230548</v>
+      </c>
+      <c r="L74">
+        <v>0.03548904890058565</v>
+      </c>
+      <c r="M74">
+        <v>0.03566931819354559</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.1017908689654138</v>
+        <v>-0.09203304188416994</v>
       </c>
       <c r="C75">
-        <v>0.02302875853967509</v>
+        <v>0.05026179268954839</v>
       </c>
       <c r="D75">
-        <v>0.02679621784971269</v>
+        <v>0.01001212757795273</v>
       </c>
       <c r="E75">
-        <v>0.03377711063161656</v>
+        <v>-0.009362070257720229</v>
       </c>
       <c r="F75">
-        <v>-0.05608393271279954</v>
+        <v>0.02441022386828958</v>
       </c>
       <c r="G75">
-        <v>0.1099023827694493</v>
+        <v>0.1182126766743741</v>
       </c>
       <c r="H75">
-        <v>0.04737541857150573</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.06734210173867428</v>
+      </c>
+      <c r="I75">
+        <v>0.05106832293945156</v>
+      </c>
+      <c r="J75">
+        <v>0.02439965762929601</v>
+      </c>
+      <c r="K75">
+        <v>-0.04142997799647992</v>
+      </c>
+      <c r="L75">
+        <v>-0.005416621621452229</v>
+      </c>
+      <c r="M75">
+        <v>-0.06060419704632457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1318412878010363</v>
+        <v>-0.1014762570704728</v>
       </c>
       <c r="C76">
-        <v>0.03584484653478442</v>
+        <v>0.0705000712916999</v>
       </c>
       <c r="D76">
-        <v>0.02662081432580624</v>
+        <v>0.009861564650360024</v>
       </c>
       <c r="E76">
-        <v>0.03136243802333093</v>
+        <v>0.00885828381149391</v>
       </c>
       <c r="F76">
-        <v>-0.008182376860857394</v>
+        <v>0.06213534334066953</v>
       </c>
       <c r="G76">
-        <v>0.2465688582368827</v>
+        <v>0.2211685020236523</v>
       </c>
       <c r="H76">
-        <v>0.01727664768492644</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.06839033785946809</v>
+      </c>
+      <c r="I76">
+        <v>0.009638159394605472</v>
+      </c>
+      <c r="J76">
+        <v>0.06366955782204101</v>
+      </c>
+      <c r="K76">
+        <v>-0.04034754869341844</v>
+      </c>
+      <c r="L76">
+        <v>-1.056920985497884e-05</v>
+      </c>
+      <c r="M76">
+        <v>0.1380342579244159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07766319716490747</v>
+        <v>-0.07377684660058391</v>
       </c>
       <c r="C77">
-        <v>0.04367574072135184</v>
+        <v>0.02087296893593079</v>
       </c>
       <c r="D77">
-        <v>-0.05229436688042725</v>
+        <v>0.006218412345278529</v>
       </c>
       <c r="E77">
-        <v>-0.3480998283336323</v>
+        <v>0.05638598723251542</v>
       </c>
       <c r="F77">
-        <v>-0.6589042428118734</v>
+        <v>-0.490930394757299</v>
       </c>
       <c r="G77">
-        <v>-0.06892356557383576</v>
+        <v>-0.3419315885638998</v>
       </c>
       <c r="H77">
-        <v>-0.4204375064543412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.6543570598881581</v>
+      </c>
+      <c r="I77">
+        <v>-0.06174245830825158</v>
+      </c>
+      <c r="J77">
+        <v>-0.02445034162781166</v>
+      </c>
+      <c r="K77">
+        <v>-0.0911323845546087</v>
+      </c>
+      <c r="L77">
+        <v>-0.01489084336649601</v>
+      </c>
+      <c r="M77">
+        <v>0.1968191276746043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1217614635074447</v>
+        <v>-0.1783375426857354</v>
       </c>
       <c r="C78">
-        <v>0.08862663944382992</v>
+        <v>0.1077649953601265</v>
       </c>
       <c r="D78">
-        <v>0.01568796437170021</v>
+        <v>-0.1773760270886427</v>
       </c>
       <c r="E78">
-        <v>-0.1525114831207307</v>
+        <v>0.1249460549406642</v>
       </c>
       <c r="F78">
-        <v>0.07744896485089912</v>
+        <v>-0.1200025844471729</v>
       </c>
       <c r="G78">
-        <v>-0.03798625212969112</v>
+        <v>-0.162054915272303</v>
       </c>
       <c r="H78">
-        <v>0.05656184070194999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.2092934377417436</v>
+      </c>
+      <c r="I78">
+        <v>0.5795587045564529</v>
+      </c>
+      <c r="J78">
+        <v>0.07282836531493761</v>
+      </c>
+      <c r="K78">
+        <v>-0.5384605007631308</v>
+      </c>
+      <c r="L78">
+        <v>0.04590402350193613</v>
+      </c>
+      <c r="M78">
+        <v>0.1096760121060567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1465918086492421</v>
+        <v>-0.1358760161192636</v>
       </c>
       <c r="C79">
-        <v>0.05404665637057379</v>
+        <v>0.07575565891965136</v>
       </c>
       <c r="D79">
-        <v>0.03902552207690695</v>
+        <v>0.004836228354878354</v>
       </c>
       <c r="E79">
-        <v>0.0519451463289648</v>
+        <v>0.004293785213512133</v>
       </c>
       <c r="F79">
-        <v>-0.04394993691322133</v>
+        <v>0.007630491005458774</v>
       </c>
       <c r="G79">
-        <v>0.1607100449130352</v>
+        <v>0.175501199606406</v>
       </c>
       <c r="H79">
-        <v>0.05365278565297056</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.07553735943895618</v>
+      </c>
+      <c r="I79">
+        <v>0.0005023992152333565</v>
+      </c>
+      <c r="J79">
+        <v>0.06741438609158565</v>
+      </c>
+      <c r="K79">
+        <v>0.0174760036877525</v>
+      </c>
+      <c r="L79">
+        <v>0.03305995916667183</v>
+      </c>
+      <c r="M79">
+        <v>0.004822065094512564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.01665345209966555</v>
+        <v>-0.03947346968069807</v>
       </c>
       <c r="C80">
-        <v>-0.007619141958288943</v>
+        <v>0.01634787003762065</v>
       </c>
       <c r="D80">
-        <v>-0.009829690039329809</v>
+        <v>0.05143125895543833</v>
       </c>
       <c r="E80">
-        <v>-0.0005121824948770209</v>
+        <v>-0.001174268635414457</v>
       </c>
       <c r="F80">
-        <v>0.03702063472977012</v>
+        <v>-0.008809563950544441</v>
       </c>
       <c r="G80">
-        <v>0.007790830571745422</v>
+        <v>-0.001693678671764298</v>
       </c>
       <c r="H80">
-        <v>-0.0486931967230475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.09705530040482552</v>
+      </c>
+      <c r="I80">
+        <v>0.03265677326073349</v>
+      </c>
+      <c r="J80">
+        <v>0.006276333102172648</v>
+      </c>
+      <c r="K80">
+        <v>-0.001932850073725318</v>
+      </c>
+      <c r="L80">
+        <v>0.003734972729167474</v>
+      </c>
+      <c r="M80">
+        <v>-0.04813558328033055</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1178763035246923</v>
+        <v>-0.1213716017568125</v>
       </c>
       <c r="C81">
-        <v>0.0459972137039945</v>
+        <v>0.05211638173028016</v>
       </c>
       <c r="D81">
-        <v>0.04078059720342727</v>
+        <v>0.003516396682749715</v>
       </c>
       <c r="E81">
-        <v>0.04172412540565034</v>
+        <v>0.00449817511437363</v>
       </c>
       <c r="F81">
-        <v>-0.01490187189376145</v>
+        <v>-0.004112584624084763</v>
       </c>
       <c r="G81">
-        <v>0.1052173888140348</v>
+        <v>0.1756231070008763</v>
       </c>
       <c r="H81">
-        <v>0.01203728199226001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.03801093872595242</v>
+      </c>
+      <c r="I81">
+        <v>0.008904875755904439</v>
+      </c>
+      <c r="J81">
+        <v>-0.003683705825969948</v>
+      </c>
+      <c r="K81">
+        <v>-0.01253799989124826</v>
+      </c>
+      <c r="L81">
+        <v>-0.01896826661049929</v>
+      </c>
+      <c r="M81">
+        <v>-0.03648215836982012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1130643428370934</v>
+        <v>-0.1173278894348423</v>
       </c>
       <c r="C82">
-        <v>0.04870559057758096</v>
+        <v>0.05728323747321978</v>
       </c>
       <c r="D82">
-        <v>0.06482695882311165</v>
+        <v>0.02443382525696092</v>
       </c>
       <c r="E82">
-        <v>0.1031733994632392</v>
+        <v>-0.002378964703832083</v>
       </c>
       <c r="F82">
-        <v>-0.05871698521520732</v>
+        <v>0.04198953644288467</v>
       </c>
       <c r="G82">
-        <v>0.2683165402272224</v>
+        <v>0.2459132601376032</v>
       </c>
       <c r="H82">
-        <v>0.07230536068864553</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.07308463096387188</v>
+      </c>
+      <c r="I82">
+        <v>0.04469514210061454</v>
+      </c>
+      <c r="J82">
+        <v>-0.007034149709416259</v>
+      </c>
+      <c r="K82">
+        <v>0.04533670723515195</v>
+      </c>
+      <c r="L82">
+        <v>0.04037070083031125</v>
+      </c>
+      <c r="M82">
+        <v>0.0004803254766610515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05015133997077584</v>
+        <v>-0.07061276130479066</v>
       </c>
       <c r="C83">
-        <v>0.03209308358666864</v>
+        <v>0.0559902912870466</v>
       </c>
       <c r="D83">
-        <v>0.03318193734481686</v>
+        <v>0.006597949625314753</v>
       </c>
       <c r="E83">
-        <v>0.01313102323857037</v>
+        <v>0.020881897289094</v>
       </c>
       <c r="F83">
-        <v>-0.01766211148914138</v>
+        <v>0.003983071299286049</v>
       </c>
       <c r="G83">
-        <v>-0.09713473014223611</v>
+        <v>-0.002659151028989368</v>
       </c>
       <c r="H83">
-        <v>0.0508344929322227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02841253439992187</v>
+      </c>
+      <c r="I83">
+        <v>-0.00540796964205126</v>
+      </c>
+      <c r="J83">
+        <v>-0.04853525454595452</v>
+      </c>
+      <c r="K83">
+        <v>0.1611955847545281</v>
+      </c>
+      <c r="L83">
+        <v>-0.0366775329266256</v>
+      </c>
+      <c r="M83">
+        <v>-0.08834150516305768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05407529138179914</v>
+        <v>-0.04101827009861004</v>
       </c>
       <c r="C84">
-        <v>0.0245021518668264</v>
+        <v>-0.02220206427976696</v>
       </c>
       <c r="D84">
-        <v>-0.01749420561107251</v>
+        <v>0.0007340147092878845</v>
       </c>
       <c r="E84">
-        <v>0.008470658375495255</v>
+        <v>-0.03203037841930399</v>
       </c>
       <c r="F84">
-        <v>0.1241507358686415</v>
+        <v>-0.03022890454124515</v>
       </c>
       <c r="G84">
-        <v>0.01697015553206771</v>
+        <v>-0.1287345035018823</v>
       </c>
       <c r="H84">
-        <v>0.06833267550827279</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.260682207859438</v>
+      </c>
+      <c r="I84">
+        <v>0.1432547267466427</v>
+      </c>
+      <c r="J84">
+        <v>-0.1214169175246562</v>
+      </c>
+      <c r="K84">
+        <v>0.2109503693138017</v>
+      </c>
+      <c r="L84">
+        <v>0.2651187796463682</v>
+      </c>
+      <c r="M84">
+        <v>0.3722058399941541</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.07924581645963899</v>
+        <v>-0.1071989342003922</v>
       </c>
       <c r="C85">
-        <v>0.04239996262048533</v>
+        <v>0.05234082394927757</v>
       </c>
       <c r="D85">
-        <v>0.05512094174630696</v>
+        <v>0.01716125774822421</v>
       </c>
       <c r="E85">
-        <v>0.02101862068410415</v>
+        <v>0.03303746838281408</v>
       </c>
       <c r="F85">
-        <v>-0.01618508678765778</v>
+        <v>0.004923638840143159</v>
       </c>
       <c r="G85">
-        <v>0.1825368497083026</v>
+        <v>0.1828793533702467</v>
       </c>
       <c r="H85">
-        <v>0.0009432286295280081</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.06118187580157574</v>
+      </c>
+      <c r="I85">
+        <v>0.005953656071454601</v>
+      </c>
+      <c r="J85">
+        <v>0.06438755289778973</v>
+      </c>
+      <c r="K85">
+        <v>-0.01827669565463795</v>
+      </c>
+      <c r="L85">
+        <v>0.05298512715550512</v>
+      </c>
+      <c r="M85">
+        <v>-0.0009577792021977267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.0380741999424307</v>
+        <v>-0.07297741796882377</v>
       </c>
       <c r="C86">
-        <v>0.04855733138496541</v>
+        <v>0.02599328138336764</v>
       </c>
       <c r="D86">
-        <v>-0.005976848745499063</v>
+        <v>-0.00825633828517592</v>
       </c>
       <c r="E86">
-        <v>-0.04995687916104049</v>
+        <v>0.04009652019093713</v>
       </c>
       <c r="F86">
-        <v>-0.01139206880432323</v>
+        <v>-0.08477043029631583</v>
       </c>
       <c r="G86">
-        <v>-0.03565066790826672</v>
+        <v>-0.1224506774652943</v>
       </c>
       <c r="H86">
-        <v>-0.0872437049199076</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.1503533546681762</v>
+      </c>
+      <c r="I86">
+        <v>0.140319913337371</v>
+      </c>
+      <c r="J86">
+        <v>-0.08200839606260973</v>
+      </c>
+      <c r="K86">
+        <v>0.1886274670286869</v>
+      </c>
+      <c r="L86">
+        <v>0.4997598589677738</v>
+      </c>
+      <c r="M86">
+        <v>-0.1342198268035994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09444436836559351</v>
+        <v>-0.1139890799422602</v>
       </c>
       <c r="C87">
-        <v>0.08149639691263524</v>
+        <v>0.07159755288911925</v>
       </c>
       <c r="D87">
-        <v>0.01056977503927808</v>
+        <v>-0.03324091712806773</v>
       </c>
       <c r="E87">
-        <v>-0.1543772179679004</v>
+        <v>0.03287268655300865</v>
       </c>
       <c r="F87">
-        <v>-0.1135289127211839</v>
+        <v>-0.158467086351698</v>
       </c>
       <c r="G87">
-        <v>-0.01690005211847331</v>
+        <v>-0.1308254983292665</v>
       </c>
       <c r="H87">
-        <v>-0.07297055938408205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09283413414954812</v>
+      </c>
+      <c r="I87">
+        <v>-0.02685400361701881</v>
+      </c>
+      <c r="J87">
+        <v>-0.029074717969369</v>
+      </c>
+      <c r="K87">
+        <v>0.08868627784526369</v>
+      </c>
+      <c r="L87">
+        <v>-0.02029916679551639</v>
+      </c>
+      <c r="M87">
+        <v>0.06715496591573082</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04695710081560498</v>
+        <v>-0.0571568678441804</v>
       </c>
       <c r="C88">
-        <v>0.03736461892526509</v>
+        <v>0.05405912631477477</v>
       </c>
       <c r="D88">
-        <v>0.01904635617255019</v>
+        <v>0.02961339757022748</v>
       </c>
       <c r="E88">
-        <v>-0.005722192855952</v>
+        <v>0.0162982903416978</v>
       </c>
       <c r="F88">
-        <v>0.002894277820985951</v>
+        <v>-0.02683541488370766</v>
       </c>
       <c r="G88">
-        <v>-0.02241125805027759</v>
+        <v>0.02213597980287406</v>
       </c>
       <c r="H88">
-        <v>0.0008424726673103467</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.03285098225724935</v>
+      </c>
+      <c r="I88">
+        <v>-0.02363978076218438</v>
+      </c>
+      <c r="J88">
+        <v>-0.02964303118089135</v>
+      </c>
+      <c r="K88">
+        <v>0.0207081721282199</v>
+      </c>
+      <c r="L88">
+        <v>-0.005548276029303802</v>
+      </c>
+      <c r="M88">
+        <v>-0.02106963927629376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1692887457115714</v>
+        <v>-0.2179299747101196</v>
       </c>
       <c r="C89">
-        <v>-0.3131664790152496</v>
+        <v>-0.3555704487463288</v>
       </c>
       <c r="D89">
-        <v>0.08367353452054441</v>
+        <v>-0.04186531134893699</v>
       </c>
       <c r="E89">
-        <v>-0.08656492432089757</v>
+        <v>0.08761673147367022</v>
       </c>
       <c r="F89">
-        <v>0.0006885919966046181</v>
+        <v>-0.003776992773259945</v>
       </c>
       <c r="G89">
-        <v>-0.035053094258926</v>
+        <v>0.008147173684481698</v>
       </c>
       <c r="H89">
-        <v>0.03113475936460363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.03028154758136401</v>
+      </c>
+      <c r="I89">
+        <v>-0.006945397599066476</v>
+      </c>
+      <c r="J89">
+        <v>-0.07052903334457238</v>
+      </c>
+      <c r="K89">
+        <v>-0.02094836054832554</v>
+      </c>
+      <c r="L89">
+        <v>-0.08540141127583933</v>
+      </c>
+      <c r="M89">
+        <v>-0.07627802220606374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1269474868851825</v>
+        <v>-0.1479522796868763</v>
       </c>
       <c r="C90">
-        <v>-0.2739307036941427</v>
+        <v>-0.2670416192302612</v>
       </c>
       <c r="D90">
-        <v>0.01767992274635631</v>
+        <v>0.006525422810740938</v>
       </c>
       <c r="E90">
-        <v>-0.06580059340869537</v>
+        <v>0.0209361810996883</v>
       </c>
       <c r="F90">
-        <v>-0.009532688046080474</v>
+        <v>-0.02806185588152696</v>
       </c>
       <c r="G90">
-        <v>-0.02805493864684787</v>
+        <v>-0.02033351615754099</v>
       </c>
       <c r="H90">
-        <v>-0.03534500678379571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.01802440719473529</v>
+      </c>
+      <c r="I90">
+        <v>-0.05011531571232818</v>
+      </c>
+      <c r="J90">
+        <v>-0.02694651063808016</v>
+      </c>
+      <c r="K90">
+        <v>0.000408234366672903</v>
+      </c>
+      <c r="L90">
+        <v>-0.007542612942543541</v>
+      </c>
+      <c r="M90">
+        <v>0.04022908727965629</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08539558013048906</v>
+        <v>-0.07594102570045715</v>
       </c>
       <c r="C91">
-        <v>0.03452730255646545</v>
+        <v>0.05248077141847642</v>
       </c>
       <c r="D91">
-        <v>0.0184259971052448</v>
+        <v>-0.009062807490834702</v>
       </c>
       <c r="E91">
-        <v>0.004081476075311405</v>
+        <v>0.002241606823277714</v>
       </c>
       <c r="F91">
-        <v>-0.008859052342523167</v>
+        <v>0.01996659883121814</v>
       </c>
       <c r="G91">
-        <v>0.1125299455643258</v>
+        <v>0.09989947779251254</v>
       </c>
       <c r="H91">
-        <v>0.02435442840786205</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.04167826245297065</v>
+      </c>
+      <c r="I91">
+        <v>0.02063806506373664</v>
+      </c>
+      <c r="J91">
+        <v>0.00961821257527784</v>
+      </c>
+      <c r="K91">
+        <v>-0.05551714426320371</v>
+      </c>
+      <c r="L91">
+        <v>-0.03121207316945246</v>
+      </c>
+      <c r="M91">
+        <v>0.004856663068669841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1472909340886138</v>
+        <v>-0.1672637905660773</v>
       </c>
       <c r="C92">
-        <v>-0.3115174179101406</v>
+        <v>-0.3062069324907479</v>
       </c>
       <c r="D92">
-        <v>0.06593156463706731</v>
+        <v>-0.02698277988592767</v>
       </c>
       <c r="E92">
-        <v>-0.0238151783369132</v>
+        <v>0.04855827589198011</v>
       </c>
       <c r="F92">
-        <v>0.06114749307540845</v>
+        <v>0.002126482618478169</v>
       </c>
       <c r="G92">
-        <v>-0.01636319602444074</v>
+        <v>0.02815392029889288</v>
       </c>
       <c r="H92">
-        <v>0.04536742026379754</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03271300783519945</v>
+      </c>
+      <c r="I92">
+        <v>-0.01119337662735018</v>
+      </c>
+      <c r="J92">
+        <v>-0.02217210719267799</v>
+      </c>
+      <c r="K92">
+        <v>-0.01647014015180311</v>
+      </c>
+      <c r="L92">
+        <v>-0.00440135171383206</v>
+      </c>
+      <c r="M92">
+        <v>-0.02073158241314248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1383281906458418</v>
+        <v>-0.1630002270867966</v>
       </c>
       <c r="C93">
-        <v>-0.2525319112802654</v>
+        <v>-0.2888181052293927</v>
       </c>
       <c r="D93">
-        <v>0.03237179136970996</v>
+        <v>0.02789618507336228</v>
       </c>
       <c r="E93">
-        <v>-0.02895762759422383</v>
+        <v>0.006217097498714195</v>
       </c>
       <c r="F93">
-        <v>0.004503619615641877</v>
+        <v>-0.01086699490347458</v>
       </c>
       <c r="G93">
-        <v>-0.05625988203731</v>
+        <v>-0.001461834091312381</v>
       </c>
       <c r="H93">
-        <v>-0.002304789006486127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01874000442416781</v>
+      </c>
+      <c r="I93">
+        <v>-0.01690750833838509</v>
+      </c>
+      <c r="J93">
+        <v>-0.0145708750760156</v>
+      </c>
+      <c r="K93">
+        <v>0.05811880723681589</v>
+      </c>
+      <c r="L93">
+        <v>0.01122406894164941</v>
+      </c>
+      <c r="M93">
+        <v>0.0087714981349224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08932758985381127</v>
+        <v>-0.1068199821818107</v>
       </c>
       <c r="C94">
-        <v>0.06314917321317365</v>
+        <v>0.07560326669924386</v>
       </c>
       <c r="D94">
-        <v>0.01906820006099596</v>
+        <v>-0.01133964254636848</v>
       </c>
       <c r="E94">
-        <v>0.003093789727923527</v>
+        <v>0.02165898907878496</v>
       </c>
       <c r="F94">
-        <v>-0.02208312233905569</v>
+        <v>0.0415463962154918</v>
       </c>
       <c r="G94">
-        <v>0.1526362915581495</v>
+        <v>0.1294242998778665</v>
       </c>
       <c r="H94">
-        <v>0.06956717250266753</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.02779507509427693</v>
+      </c>
+      <c r="I94">
+        <v>0.02255572208124276</v>
+      </c>
+      <c r="J94">
+        <v>0.01751483147815247</v>
+      </c>
+      <c r="K94">
+        <v>-0.03701824129958086</v>
+      </c>
+      <c r="L94">
+        <v>-0.01139285392369575</v>
+      </c>
+      <c r="M94">
+        <v>-0.05303502794690206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1002705275508477</v>
+        <v>-0.1357506520535877</v>
       </c>
       <c r="C95">
-        <v>0.1124751321894338</v>
+        <v>0.08108315001064345</v>
       </c>
       <c r="D95">
-        <v>0.07798849620333639</v>
+        <v>-0.008451716563600411</v>
       </c>
       <c r="E95">
-        <v>-0.02185982764331088</v>
+        <v>0.0631101903809325</v>
       </c>
       <c r="F95">
-        <v>0.04213874767656441</v>
+        <v>-0.062431923424123</v>
       </c>
       <c r="G95">
-        <v>-0.009322040510844943</v>
+        <v>-0.1711690645874848</v>
       </c>
       <c r="H95">
-        <v>-0.04195779507084019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1441774301580739</v>
+      </c>
+      <c r="I95">
+        <v>-0.09646227986460909</v>
+      </c>
+      <c r="J95">
+        <v>-0.02326020071210965</v>
+      </c>
+      <c r="K95">
+        <v>0.09230302692893544</v>
+      </c>
+      <c r="L95">
+        <v>0.1768481633864465</v>
+      </c>
+      <c r="M95">
+        <v>-0.274929519578999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.3147948941345651</v>
+        <v>-0.1738423417713321</v>
       </c>
       <c r="C97">
-        <v>0.009745682649926396</v>
+        <v>0.003542369224699395</v>
       </c>
       <c r="D97">
-        <v>-0.8701594248116246</v>
+        <v>-0.09970977725518707</v>
       </c>
       <c r="E97">
-        <v>0.1549794657315681</v>
+        <v>-0.935161412869571</v>
       </c>
       <c r="F97">
-        <v>0.06786951308334391</v>
+        <v>-0.06053094712607728</v>
       </c>
       <c r="G97">
-        <v>-0.07440060876729425</v>
+        <v>-0.07155501763506535</v>
       </c>
       <c r="H97">
-        <v>-0.05570226288170593</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.04262382968022815</v>
+      </c>
+      <c r="I97">
+        <v>0.005944887458721071</v>
+      </c>
+      <c r="J97">
+        <v>-0.06254018424458055</v>
+      </c>
+      <c r="K97">
+        <v>-0.05677109709256655</v>
+      </c>
+      <c r="L97">
+        <v>-0.01642014920869594</v>
+      </c>
+      <c r="M97">
+        <v>-0.01943528755130595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2610935008641631</v>
+        <v>-0.2636941210602912</v>
       </c>
       <c r="C98">
-        <v>0.1173919785804944</v>
+        <v>0.1237184711284919</v>
       </c>
       <c r="D98">
-        <v>0.1615943257786411</v>
+        <v>0.01999808561978934</v>
       </c>
       <c r="E98">
-        <v>0.303980022856317</v>
+        <v>0.00739902975671731</v>
       </c>
       <c r="F98">
-        <v>0.04506568693876876</v>
+        <v>0.4118803573736519</v>
       </c>
       <c r="G98">
-        <v>-0.5298905198829945</v>
+        <v>-0.3121969395839481</v>
       </c>
       <c r="H98">
-        <v>0.2758648343511935</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.1171694333198594</v>
+      </c>
+      <c r="I98">
+        <v>0.3884898058252271</v>
+      </c>
+      <c r="J98">
+        <v>0.05120869157791525</v>
+      </c>
+      <c r="K98">
+        <v>0.3450367095696864</v>
+      </c>
+      <c r="L98">
+        <v>-0.4391821297128345</v>
+      </c>
+      <c r="M98">
+        <v>0.08462446791137228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.06133692945371945</v>
+        <v>-0.07309448905083026</v>
       </c>
       <c r="C99">
-        <v>0.06408875211244562</v>
+        <v>0.05886033417495223</v>
       </c>
       <c r="D99">
-        <v>-0.04061429303545638</v>
+        <v>-0.02299169664577875</v>
       </c>
       <c r="E99">
-        <v>-0.000995063998622536</v>
+        <v>0.01261928258689447</v>
       </c>
       <c r="F99">
-        <v>-0.5788518816317594</v>
+        <v>0.00352595573759081</v>
       </c>
       <c r="G99">
-        <v>-0.108619648191941</v>
+        <v>0.025543822859312</v>
       </c>
       <c r="H99">
-        <v>0.5989447591648047</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.289964723975269</v>
+      </c>
+      <c r="I99">
+        <v>0.1920577268476198</v>
+      </c>
+      <c r="J99">
+        <v>-0.1849203774034369</v>
+      </c>
+      <c r="K99">
+        <v>0.01725753863008115</v>
+      </c>
+      <c r="L99">
+        <v>0.06355367597156597</v>
+      </c>
+      <c r="M99">
+        <v>-0.6408578248784981</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04616543436889427</v>
+        <v>-0.04482340843011344</v>
       </c>
       <c r="C101">
-        <v>0.006752111441494886</v>
+        <v>0.02161025914743377</v>
       </c>
       <c r="D101">
-        <v>0.01229174248049117</v>
+        <v>0.0007798081144014128</v>
       </c>
       <c r="E101">
-        <v>-0.0313718513146813</v>
+        <v>0.01957594802886319</v>
       </c>
       <c r="F101">
-        <v>0.03518473549580245</v>
+        <v>-0.04645275166691002</v>
       </c>
       <c r="G101">
-        <v>0.006785829239858042</v>
+        <v>0.05905838882758296</v>
       </c>
       <c r="H101">
-        <v>-0.01801576187010636</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.0411448801174363</v>
+      </c>
+      <c r="I101">
+        <v>-0.004115613621113958</v>
+      </c>
+      <c r="J101">
+        <v>0.02347350300626373</v>
+      </c>
+      <c r="K101">
+        <v>0.03609722821498457</v>
+      </c>
+      <c r="L101">
+        <v>-0.01309036132869157</v>
+      </c>
+      <c r="M101">
+        <v>0.01302436526475278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
